--- a/gerador/Itens Externos/ENEM_LAI/anexos(1)/2016P3_CAD9_CAD13.xlsx
+++ b/gerador/Itens Externos/ENEM_LAI/anexos(1)/2016P3_CAD9_CAD13.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Github\CDN_ENEMASTER\gerador\Itens Externos\ENEM_LAI\anexos(1)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A527AF63-651A-4175-8991-1E43794D6C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C558D37-52A6-4BEA-BD15-0271EE5C80C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="5" r:id="rId1"/>
+    <sheet name="2016P3" sheetId="5" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -213,12 +213,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -236,7 +236,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -253,9 +253,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,7 +536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A83D11-A6CF-4410-B277-361D10E98561}">
   <dimension ref="A1:O186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -4304,7 +4301,7 @@
       <c r="B92" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C92" s="14">
+      <c r="C92" s="3">
         <v>10591</v>
       </c>
       <c r="D92" s="5" t="s">
